--- a/events/2009/rundata/2009.xlsx
+++ b/events/2009/rundata/2009.xlsx
@@ -1,32 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\mike\projects\work\wsw-results\events\2009\rundata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8155687-AF49-4ED8-A98E-6D1ED3BC65C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA54E1D6-C048-46CB-9417-C14A199B85C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{BB342CD1-ADCA-4978-BE80-00080974E573}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="8" xr2:uid="{BB342CD1-ADCA-4978-BE80-00080974E573}"/>
   </bookViews>
   <sheets>
-    <sheet name="entrants" sheetId="8" r:id="rId1"/>
-    <sheet name="20081010" sheetId="2" r:id="rId2"/>
-    <sheet name="20081011" sheetId="3" r:id="rId3"/>
-    <sheet name="20081012" sheetId="4" r:id="rId4"/>
-    <sheet name="20081013" sheetId="5" r:id="rId5"/>
-    <sheet name="20081014" sheetId="6" r:id="rId6"/>
-    <sheet name="20081015" sheetId="7" r:id="rId7"/>
-    <sheet name="20081016" sheetId="1" r:id="rId8"/>
+    <sheet name="notes" sheetId="9" r:id="rId1"/>
+    <sheet name="entrants" sheetId="8" r:id="rId2"/>
+    <sheet name="20091010" sheetId="2" r:id="rId3"/>
+    <sheet name="20091011" sheetId="3" r:id="rId4"/>
+    <sheet name="20091012" sheetId="4" r:id="rId5"/>
+    <sheet name="20091013" sheetId="5" r:id="rId6"/>
+    <sheet name="20091014" sheetId="6" r:id="rId7"/>
+    <sheet name="20091015" sheetId="7" r:id="rId8"/>
+    <sheet name="20091016" sheetId="1" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'20081010'!$A$1:$H$228</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'20081011'!$A$1:$H$921</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'20081016'!$A$1:$G$182</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">entrants!$A$1:$H$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'20091010'!$A$1:$H$227</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'20091011'!$A$1:$H$921</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'20091016'!$A$1:$G$182</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">entrants!$A$1:$H$105</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9505" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9504" uniqueCount="207">
   <si>
     <t>Sail Number</t>
   </si>
@@ -655,6 +656,18 @@
   <si>
     <t>None</t>
   </si>
+  <si>
+    <t>distinct</t>
+  </si>
+  <si>
+    <t>Removed Dave Standing 0.16 knots from all runs</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>Fine. Tim Frampton had differing number (77 vs 467) and Ant Baker excluded from main results (5.85 knots)</t>
+  </si>
 </sst>
 </file>
 
@@ -1015,10 +1028,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{386D6D46-3A38-4FDD-8020-C19B54051FC5}">
+  <dimension ref="A2:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="99.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>20091010</v>
+      </c>
+      <c r="B2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>20091011</v>
+      </c>
+      <c r="B3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>20091016</v>
+      </c>
+      <c r="B4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA4417A-F71B-4196-B577-437DC7EB50DB}">
   <dimension ref="A1:H105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="C102" sqref="C102"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1372,55 +1429,94 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>17</v>
+        <v>133</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>49</v>
+      </c>
+      <c r="D14" t="s">
+        <v>168</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>630</v>
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>71</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>138</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>133</v>
+      </c>
+      <c r="D16" t="s">
+        <v>134</v>
       </c>
       <c r="E16" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" t="s">
+        <v>73</v>
+      </c>
+      <c r="H16" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>133</v>
+        <v>568</v>
       </c>
       <c r="B17" t="s">
         <v>71</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>176</v>
       </c>
       <c r="D17" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
@@ -1437,51 +1533,51 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>10</v>
+        <v>329</v>
       </c>
       <c r="B18" t="s">
         <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G18" t="s">
         <v>73</v>
       </c>
       <c r="H18" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>12</v>
+        <v>624</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>181</v>
       </c>
       <c r="C19" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
       <c r="D19" t="s">
-        <v>134</v>
+        <v>183</v>
       </c>
       <c r="E19" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="F19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G19" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H19" t="s">
         <v>76</v>
@@ -1489,16 +1585,16 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>568</v>
+        <v>115</v>
       </c>
       <c r="B20" t="s">
         <v>71</v>
       </c>
       <c r="C20" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="D20" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="E20" t="s">
         <v>9</v>
@@ -1507,33 +1603,33 @@
         <v>74</v>
       </c>
       <c r="G20" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>329</v>
+        <v>95</v>
       </c>
       <c r="B21" t="s">
         <v>71</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="E21" t="s">
         <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G21" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H21" t="s">
         <v>74</v>
@@ -1541,25 +1637,25 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>624</v>
+        <v>681</v>
       </c>
       <c r="B22" t="s">
-        <v>181</v>
+        <v>71</v>
       </c>
       <c r="C22" t="s">
-        <v>182</v>
+        <v>77</v>
       </c>
       <c r="D22" t="s">
-        <v>183</v>
+        <v>120</v>
       </c>
       <c r="E22" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="F22" t="s">
         <v>72</v>
       </c>
       <c r="G22" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H22" t="s">
         <v>76</v>
@@ -1567,42 +1663,42 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="B23" t="s">
         <v>71</v>
       </c>
       <c r="C23" t="s">
-        <v>166</v>
+        <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>167</v>
+        <v>26</v>
       </c>
       <c r="E23" t="s">
         <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G23" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="B24" t="s">
         <v>71</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>199</v>
       </c>
       <c r="D24" t="s">
-        <v>31</v>
+        <v>197</v>
       </c>
       <c r="E24" t="s">
         <v>9</v>
@@ -1611,30 +1707,30 @@
         <v>74</v>
       </c>
       <c r="G24" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H24" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>681</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>181</v>
       </c>
       <c r="C25" t="s">
-        <v>77</v>
+        <v>196</v>
       </c>
       <c r="D25" t="s">
-        <v>120</v>
+        <v>197</v>
       </c>
       <c r="E25" t="s">
         <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G25" t="s">
         <v>73</v>
@@ -1645,25 +1741,25 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>62</v>
+        <v>292</v>
       </c>
       <c r="B26" t="s">
         <v>71</v>
       </c>
       <c r="C26" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="D26" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="E26" t="s">
         <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G26" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H26" t="s">
         <v>74</v>
@@ -1671,68 +1767,68 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>73</v>
+        <v>571</v>
       </c>
       <c r="B27" t="s">
         <v>71</v>
       </c>
       <c r="C27" t="s">
-        <v>199</v>
+        <v>115</v>
       </c>
       <c r="D27" t="s">
-        <v>197</v>
+        <v>116</v>
       </c>
       <c r="E27" t="s">
         <v>9</v>
       </c>
       <c r="F27" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="G27" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B28" t="s">
-        <v>181</v>
+        <v>71</v>
       </c>
       <c r="C28" t="s">
-        <v>196</v>
+        <v>148</v>
       </c>
       <c r="D28" t="s">
-        <v>197</v>
+        <v>149</v>
       </c>
       <c r="E28" t="s">
         <v>9</v>
       </c>
       <c r="F28" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G28" t="s">
         <v>73</v>
       </c>
       <c r="H28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>292</v>
+        <v>521</v>
       </c>
       <c r="B29" t="s">
         <v>71</v>
       </c>
       <c r="C29" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="D29" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E29" t="s">
         <v>9</v>
@@ -1744,27 +1840,27 @@
         <v>73</v>
       </c>
       <c r="H29" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>571</v>
+        <v>420</v>
       </c>
       <c r="B30" t="s">
         <v>71</v>
       </c>
       <c r="C30" t="s">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="D30" t="s">
-        <v>116</v>
+        <v>54</v>
       </c>
       <c r="E30" t="s">
         <v>9</v>
       </c>
       <c r="F30" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="G30" t="s">
         <v>79</v>
@@ -1775,25 +1871,25 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>51</v>
+        <v>622</v>
       </c>
       <c r="B31" t="s">
         <v>71</v>
       </c>
       <c r="C31" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D31" t="s">
-        <v>149</v>
+        <v>180</v>
       </c>
       <c r="E31" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="F31" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G31" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s">
         <v>74</v>
@@ -1801,16 +1897,16 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>521</v>
+        <v>99</v>
       </c>
       <c r="B32" t="s">
         <v>71</v>
       </c>
       <c r="C32" t="s">
-        <v>57</v>
+        <v>162</v>
       </c>
       <c r="D32" t="s">
-        <v>58</v>
+        <v>163</v>
       </c>
       <c r="E32" t="s">
         <v>9</v>
@@ -1819,24 +1915,24 @@
         <v>74</v>
       </c>
       <c r="G32" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H32" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>420</v>
+        <v>129</v>
       </c>
       <c r="B33" t="s">
         <v>71</v>
       </c>
       <c r="C33" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D33" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="E33" t="s">
         <v>9</v>
@@ -1845,7 +1941,7 @@
         <v>74</v>
       </c>
       <c r="G33" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H33" t="s">
         <v>74</v>
@@ -1853,25 +1949,25 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>622</v>
+        <v>24</v>
       </c>
       <c r="B34" t="s">
         <v>71</v>
       </c>
       <c r="C34" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="D34" t="s">
-        <v>180</v>
+        <v>138</v>
       </c>
       <c r="E34" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="F34" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G34" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H34" t="s">
         <v>74</v>
@@ -1879,42 +1975,42 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
         <v>71</v>
       </c>
       <c r="C35" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="D35" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="E35" t="s">
         <v>9</v>
       </c>
       <c r="F35" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G35" t="s">
         <v>79</v>
       </c>
       <c r="H35" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>129</v>
+        <v>888</v>
       </c>
       <c r="B36" t="s">
         <v>71</v>
       </c>
       <c r="C36" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="D36" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="E36" t="s">
         <v>9</v>
@@ -1931,22 +2027,22 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="B37" t="s">
         <v>71</v>
       </c>
       <c r="C37" t="s">
-        <v>137</v>
+        <v>86</v>
       </c>
       <c r="D37" t="s">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="E37" t="s">
         <v>9</v>
       </c>
       <c r="F37" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="G37" t="s">
         <v>73</v>
@@ -1957,16 +2053,16 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>49</v>
+        <v>983</v>
       </c>
       <c r="B38" t="s">
         <v>71</v>
       </c>
       <c r="C38" t="s">
-        <v>144</v>
+        <v>189</v>
       </c>
       <c r="D38" t="s">
-        <v>145</v>
+        <v>190</v>
       </c>
       <c r="E38" t="s">
         <v>9</v>
@@ -1983,48 +2079,48 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>888</v>
+        <v>714</v>
       </c>
       <c r="B39" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="C39" t="s">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="D39" t="s">
-        <v>66</v>
+        <v>121</v>
       </c>
       <c r="E39" t="s">
         <v>9</v>
       </c>
       <c r="F39" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="G39" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>146</v>
+        <v>626</v>
       </c>
       <c r="B40" t="s">
         <v>71</v>
       </c>
       <c r="C40" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="D40" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="E40" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="F40" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="G40" t="s">
         <v>73</v>
@@ -2035,16 +2131,16 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>983</v>
+        <v>444</v>
       </c>
       <c r="B41" t="s">
         <v>71</v>
       </c>
       <c r="C41" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="D41" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="E41" t="s">
         <v>9</v>
@@ -2053,7 +2149,7 @@
         <v>72</v>
       </c>
       <c r="G41" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H41" t="s">
         <v>74</v>
@@ -2061,25 +2157,25 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>714</v>
+        <v>14</v>
       </c>
       <c r="B42" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C42" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="D42" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="E42" t="s">
         <v>9</v>
       </c>
       <c r="F42" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="G42" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H42" t="s">
         <v>76</v>
@@ -2087,25 +2183,25 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>626</v>
+        <v>40</v>
       </c>
       <c r="B43" t="s">
         <v>71</v>
       </c>
       <c r="C43" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="D43" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="E43" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="F43" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G43" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H43" t="s">
         <v>74</v>
@@ -2113,7 +2209,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>444</v>
+        <v>93</v>
       </c>
       <c r="B44" t="s">
         <v>71</v>
@@ -2122,13 +2218,13 @@
         <v>155</v>
       </c>
       <c r="D44" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="E44" t="s">
         <v>9</v>
       </c>
       <c r="F44" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G44" t="s">
         <v>73</v>
@@ -2139,51 +2235,51 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="B45" t="s">
         <v>71</v>
       </c>
       <c r="C45" t="s">
-        <v>135</v>
+        <v>86</v>
       </c>
       <c r="D45" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="E45" t="s">
         <v>9</v>
       </c>
       <c r="F45" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="G45" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B46" t="s">
         <v>71</v>
       </c>
       <c r="C46" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D46" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="E46" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F46" t="s">
         <v>72</v>
       </c>
       <c r="G46" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H46" t="s">
         <v>74</v>
@@ -2191,74 +2287,74 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>93</v>
+        <v>425</v>
       </c>
       <c r="B47" t="s">
         <v>71</v>
       </c>
       <c r="C47" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="D47" t="s">
-        <v>159</v>
+        <v>112</v>
       </c>
       <c r="E47" t="s">
         <v>9</v>
       </c>
       <c r="F47" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="G47" t="s">
         <v>73</v>
       </c>
       <c r="H47" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="B48" t="s">
         <v>71</v>
       </c>
       <c r="C48" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="D48" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="E48" t="s">
         <v>9</v>
       </c>
       <c r="F48" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="G48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H48" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B49" t="s">
         <v>71</v>
       </c>
       <c r="C49" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D49" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E49" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F49" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G49" t="s">
         <v>73</v>
@@ -2269,103 +2365,103 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>425</v>
+        <v>79</v>
       </c>
       <c r="B50" t="s">
         <v>71</v>
       </c>
       <c r="C50" t="s">
-        <v>111</v>
+        <v>153</v>
       </c>
       <c r="D50" t="s">
-        <v>112</v>
+        <v>154</v>
       </c>
       <c r="E50" t="s">
         <v>9</v>
       </c>
       <c r="F50" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="G50" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H50" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>140</v>
+        <v>3021</v>
       </c>
       <c r="B51" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="C51" t="s">
-        <v>36</v>
+        <v>126</v>
       </c>
       <c r="D51" t="s">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c r="E51" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F51" t="s">
         <v>74</v>
       </c>
       <c r="G51" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H51" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>8</v>
+        <v>609</v>
       </c>
       <c r="B52" t="s">
         <v>71</v>
       </c>
       <c r="C52" t="s">
-        <v>131</v>
+        <v>178</v>
       </c>
       <c r="D52" t="s">
-        <v>132</v>
+        <v>179</v>
       </c>
       <c r="E52" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="F52" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G52" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H52" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="B53" t="s">
         <v>71</v>
       </c>
       <c r="C53" t="s">
-        <v>153</v>
+        <v>7</v>
       </c>
       <c r="D53" t="s">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="E53" t="s">
         <v>9</v>
       </c>
       <c r="F53" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G53" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H53" t="s">
         <v>74</v>
@@ -2373,25 +2469,25 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>3021</v>
+        <v>151</v>
       </c>
       <c r="B54" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C54" t="s">
-        <v>126</v>
+        <v>169</v>
       </c>
       <c r="D54" t="s">
-        <v>127</v>
+        <v>170</v>
       </c>
       <c r="E54" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F54" t="s">
         <v>74</v>
       </c>
       <c r="G54" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H54" t="s">
         <v>74</v>
@@ -2399,25 +2495,25 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>609</v>
+        <v>56</v>
       </c>
       <c r="B55" t="s">
         <v>71</v>
       </c>
       <c r="C55" t="s">
-        <v>178</v>
+        <v>55</v>
       </c>
       <c r="D55" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
       <c r="E55" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="F55" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G55" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H55" t="s">
         <v>76</v>
@@ -2425,16 +2521,16 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>71</v>
       </c>
       <c r="C56" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D56" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="E56" t="s">
         <v>9</v>
@@ -2443,7 +2539,7 @@
         <v>74</v>
       </c>
       <c r="G56" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H56" t="s">
         <v>74</v>
@@ -2451,68 +2547,68 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="B57" t="s">
         <v>71</v>
       </c>
       <c r="C57" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D57" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E57" t="s">
         <v>9</v>
       </c>
       <c r="F57" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G57" t="s">
         <v>73</v>
       </c>
       <c r="H57" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>56</v>
+        <v>2811</v>
       </c>
       <c r="B58" t="s">
         <v>71</v>
       </c>
       <c r="C58" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="D58" t="s">
-        <v>150</v>
+        <v>191</v>
       </c>
       <c r="E58" t="s">
         <v>9</v>
       </c>
       <c r="F58" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G58" t="s">
         <v>73</v>
       </c>
       <c r="H58" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>55</v>
+        <v>181</v>
       </c>
       <c r="B59" t="s">
         <v>71</v>
       </c>
       <c r="C59" t="s">
-        <v>24</v>
+        <v>171</v>
       </c>
       <c r="D59" t="s">
-        <v>25</v>
+        <v>124</v>
       </c>
       <c r="E59" t="s">
         <v>9</v>
@@ -2521,7 +2617,7 @@
         <v>74</v>
       </c>
       <c r="G59" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H59" t="s">
         <v>74</v>
@@ -2529,16 +2625,16 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="B60" t="s">
         <v>71</v>
       </c>
       <c r="C60" t="s">
-        <v>164</v>
+        <v>16</v>
       </c>
       <c r="D60" t="s">
-        <v>165</v>
+        <v>17</v>
       </c>
       <c r="E60" t="s">
         <v>9</v>
@@ -2550,53 +2646,53 @@
         <v>73</v>
       </c>
       <c r="H60" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>2811</v>
+        <v>625</v>
       </c>
       <c r="B61" t="s">
         <v>71</v>
       </c>
       <c r="C61" t="s">
-        <v>122</v>
+        <v>60</v>
       </c>
       <c r="D61" t="s">
-        <v>191</v>
+        <v>61</v>
       </c>
       <c r="E61" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="F61" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G61" t="s">
         <v>73</v>
       </c>
       <c r="H61" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>181</v>
+        <v>3</v>
       </c>
       <c r="B62" t="s">
         <v>71</v>
       </c>
       <c r="C62" t="s">
-        <v>171</v>
+        <v>7</v>
       </c>
       <c r="D62" t="s">
-        <v>124</v>
+        <v>8</v>
       </c>
       <c r="E62" t="s">
         <v>9</v>
       </c>
       <c r="F62" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G62" t="s">
         <v>73</v>
@@ -2607,16 +2703,16 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>23</v>
+        <v>670</v>
       </c>
       <c r="B63" t="s">
         <v>71</v>
       </c>
       <c r="C63" t="s">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="D63" t="s">
-        <v>17</v>
+        <v>119</v>
       </c>
       <c r="E63" t="s">
         <v>9</v>
@@ -2628,24 +2724,24 @@
         <v>73</v>
       </c>
       <c r="H63" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>625</v>
+        <v>873</v>
       </c>
       <c r="B64" t="s">
         <v>71</v>
       </c>
       <c r="C64" t="s">
-        <v>60</v>
+        <v>187</v>
       </c>
       <c r="D64" t="s">
-        <v>61</v>
+        <v>188</v>
       </c>
       <c r="E64" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="F64" t="s">
         <v>74</v>
@@ -2659,25 +2755,25 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>3</v>
+        <v>210</v>
       </c>
       <c r="B65" t="s">
         <v>71</v>
       </c>
       <c r="C65" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="D65" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="E65" t="s">
         <v>9</v>
       </c>
       <c r="F65" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G65" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H65" t="s">
         <v>74</v>
@@ -2685,42 +2781,42 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>670</v>
+        <v>15</v>
       </c>
       <c r="B66" t="s">
         <v>71</v>
       </c>
       <c r="C66" t="s">
-        <v>118</v>
+        <v>200</v>
       </c>
       <c r="D66" t="s">
-        <v>119</v>
+        <v>201</v>
       </c>
       <c r="E66" t="s">
         <v>9</v>
       </c>
       <c r="F66" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G66" t="s">
         <v>73</v>
       </c>
       <c r="H66" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>873</v>
+        <v>773</v>
       </c>
       <c r="B67" t="s">
         <v>71</v>
       </c>
       <c r="C67" t="s">
-        <v>187</v>
+        <v>102</v>
       </c>
       <c r="D67" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E67" t="s">
         <v>9</v>
@@ -2729,50 +2825,50 @@
         <v>74</v>
       </c>
       <c r="G67" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H67" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>210</v>
+        <v>358</v>
       </c>
       <c r="B68" t="s">
         <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D68" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E68" t="s">
         <v>9</v>
       </c>
       <c r="F68" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G68" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H68" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>71</v>
       </c>
       <c r="C69" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D69" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="E69" t="s">
         <v>9</v>
@@ -2789,16 +2885,16 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>773</v>
+        <v>2</v>
       </c>
       <c r="B70" t="s">
         <v>71</v>
       </c>
       <c r="C70" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="D70" t="s">
-        <v>186</v>
+        <v>128</v>
       </c>
       <c r="E70" t="s">
         <v>9</v>
@@ -2807,7 +2903,7 @@
         <v>74</v>
       </c>
       <c r="G70" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H70" t="s">
         <v>74</v>
@@ -2815,94 +2911,94 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>358</v>
+        <v>248</v>
       </c>
       <c r="B71" t="s">
         <v>71</v>
       </c>
       <c r="C71" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="D71" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="E71" t="s">
         <v>9</v>
       </c>
       <c r="F71" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G71" t="s">
         <v>73</v>
       </c>
       <c r="H71" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="B72" t="s">
         <v>71</v>
       </c>
       <c r="C72" t="s">
-        <v>193</v>
+        <v>146</v>
       </c>
       <c r="D72" t="s">
-        <v>194</v>
+        <v>147</v>
       </c>
       <c r="E72" t="s">
         <v>9</v>
       </c>
       <c r="F72" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G72" t="s">
         <v>73</v>
       </c>
       <c r="H72" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>2</v>
+        <v>175</v>
       </c>
       <c r="B73" t="s">
         <v>71</v>
       </c>
       <c r="C73" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="D73" t="s">
-        <v>128</v>
+        <v>43</v>
       </c>
       <c r="E73" t="s">
         <v>9</v>
       </c>
       <c r="F73" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G73" t="s">
         <v>73</v>
       </c>
       <c r="H73" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>248</v>
+        <v>76</v>
       </c>
       <c r="B74" t="s">
         <v>71</v>
       </c>
       <c r="C74" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D74" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="E74" t="s">
         <v>9</v>
@@ -2919,16 +3015,16 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="B75" t="s">
         <v>71</v>
       </c>
       <c r="C75" t="s">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="D75" t="s">
-        <v>147</v>
+        <v>85</v>
       </c>
       <c r="E75" t="s">
         <v>9</v>
@@ -2945,16 +3041,16 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>175</v>
+        <v>97</v>
       </c>
       <c r="B76" t="s">
         <v>71</v>
       </c>
       <c r="C76" t="s">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="D76" t="s">
-        <v>43</v>
+        <v>161</v>
       </c>
       <c r="E76" t="s">
         <v>9</v>
@@ -2966,21 +3062,21 @@
         <v>73</v>
       </c>
       <c r="H76" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="B77" t="s">
         <v>71</v>
       </c>
       <c r="C77" t="s">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="D77" t="s">
-        <v>81</v>
+        <v>156</v>
       </c>
       <c r="E77" t="s">
         <v>9</v>
@@ -2997,22 +3093,22 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>102</v>
+        <v>343</v>
       </c>
       <c r="B78" t="s">
         <v>71</v>
       </c>
       <c r="C78" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="D78" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="E78" t="s">
         <v>9</v>
       </c>
       <c r="F78" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="G78" t="s">
         <v>73</v>
@@ -3023,16 +3119,16 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>97</v>
+        <v>353</v>
       </c>
       <c r="B79" t="s">
         <v>71</v>
       </c>
       <c r="C79" t="s">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="D79" t="s">
-        <v>161</v>
+        <v>107</v>
       </c>
       <c r="E79" t="s">
         <v>9</v>
@@ -3049,22 +3145,22 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="B80" t="s">
         <v>71</v>
       </c>
       <c r="C80" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="D80" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="E80" t="s">
         <v>9</v>
       </c>
       <c r="F80" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G80" t="s">
         <v>73</v>
@@ -3075,13 +3171,13 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>343</v>
+        <v>656</v>
       </c>
       <c r="B81" t="s">
         <v>71</v>
       </c>
       <c r="C81" t="s">
-        <v>106</v>
+        <v>184</v>
       </c>
       <c r="D81" t="s">
         <v>107</v>
@@ -3090,7 +3186,7 @@
         <v>9</v>
       </c>
       <c r="F81" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="G81" t="s">
         <v>73</v>
@@ -3101,25 +3197,25 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>353</v>
+        <v>1966</v>
       </c>
       <c r="B82" t="s">
         <v>71</v>
       </c>
       <c r="C82" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="D82" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="E82" t="s">
         <v>9</v>
       </c>
       <c r="F82" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G82" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H82" t="s">
         <v>74</v>
@@ -3127,96 +3223,120 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>29</v>
+        <v>131</v>
       </c>
       <c r="B83" t="s">
         <v>71</v>
       </c>
       <c r="C83" t="s">
-        <v>139</v>
+        <v>93</v>
       </c>
       <c r="D83" t="s">
-        <v>140</v>
+        <v>94</v>
       </c>
       <c r="E83" t="s">
         <v>9</v>
       </c>
       <c r="F83" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G83" t="s">
         <v>73</v>
       </c>
       <c r="H83" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>656</v>
+        <v>157</v>
       </c>
       <c r="B84" t="s">
         <v>71</v>
       </c>
       <c r="C84" t="s">
-        <v>184</v>
+        <v>38</v>
       </c>
       <c r="D84" t="s">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="E84" t="s">
         <v>9</v>
       </c>
       <c r="F84" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G84" t="s">
         <v>73</v>
       </c>
       <c r="H84" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>467</v>
+        <v>203</v>
       </c>
       <c r="B85" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C85" t="s">
-        <v>56</v>
+        <v>20</v>
+      </c>
+      <c r="D85" t="s">
+        <v>44</v>
       </c>
       <c r="E85" t="s">
         <v>9</v>
+      </c>
+      <c r="F85" t="s">
+        <v>72</v>
+      </c>
+      <c r="G85" t="s">
+        <v>73</v>
+      </c>
+      <c r="H85" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>598</v>
+        <v>44</v>
       </c>
       <c r="B86" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="C86" t="s">
-        <v>59</v>
+        <v>20</v>
+      </c>
+      <c r="D86" t="s">
+        <v>21</v>
       </c>
       <c r="E86" t="s">
         <v>9</v>
+      </c>
+      <c r="F86" t="s">
+        <v>72</v>
+      </c>
+      <c r="G86" t="s">
+        <v>73</v>
+      </c>
+      <c r="H86" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>1966</v>
+        <v>496</v>
       </c>
       <c r="B87" t="s">
         <v>71</v>
       </c>
       <c r="C87" t="s">
-        <v>124</v>
+        <v>55</v>
       </c>
       <c r="D87" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E87" t="s">
         <v>9</v>
@@ -3225,7 +3345,7 @@
         <v>74</v>
       </c>
       <c r="G87" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H87" t="s">
         <v>74</v>
@@ -3233,16 +3353,16 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>131</v>
+        <v>43</v>
       </c>
       <c r="B88" t="s">
         <v>71</v>
       </c>
       <c r="C88" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="D88" t="s">
-        <v>94</v>
+        <v>143</v>
       </c>
       <c r="E88" t="s">
         <v>9</v>
@@ -3254,21 +3374,21 @@
         <v>73</v>
       </c>
       <c r="H88" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>157</v>
+        <v>760</v>
       </c>
       <c r="B89" t="s">
         <v>71</v>
       </c>
       <c r="C89" t="s">
-        <v>38</v>
+        <v>185</v>
       </c>
       <c r="D89" t="s">
-        <v>39</v>
+        <v>141</v>
       </c>
       <c r="E89" t="s">
         <v>9</v>
@@ -3277,50 +3397,50 @@
         <v>74</v>
       </c>
       <c r="G89" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H89" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>203</v>
+        <v>39</v>
       </c>
       <c r="B90" t="s">
         <v>71</v>
       </c>
       <c r="C90" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="D90" t="s">
-        <v>44</v>
+        <v>141</v>
       </c>
       <c r="E90" t="s">
         <v>9</v>
       </c>
       <c r="F90" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G90" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H90" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B91" t="s">
         <v>71</v>
       </c>
       <c r="C91" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D91" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E91" t="s">
         <v>9</v>
@@ -3329,7 +3449,7 @@
         <v>72</v>
       </c>
       <c r="G91" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H91" t="s">
         <v>76</v>
@@ -3337,22 +3457,22 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>496</v>
+        <v>555</v>
       </c>
       <c r="B92" t="s">
         <v>71</v>
       </c>
       <c r="C92" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="D92" t="s">
-        <v>173</v>
+        <v>114</v>
       </c>
       <c r="E92" t="s">
         <v>9</v>
       </c>
       <c r="F92" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G92" t="s">
         <v>73</v>
@@ -3363,22 +3483,22 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>43</v>
+        <v>328</v>
       </c>
       <c r="B93" t="s">
         <v>71</v>
       </c>
       <c r="C93" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="D93" t="s">
-        <v>143</v>
+        <v>103</v>
       </c>
       <c r="E93" t="s">
         <v>9</v>
       </c>
       <c r="F93" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G93" t="s">
         <v>73</v>
@@ -3389,25 +3509,25 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>760</v>
+        <v>349</v>
       </c>
       <c r="B94" t="s">
         <v>71</v>
       </c>
       <c r="C94" t="s">
-        <v>185</v>
+        <v>108</v>
       </c>
       <c r="D94" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="E94" t="s">
         <v>9</v>
       </c>
       <c r="F94" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G94" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H94" t="s">
         <v>74</v>
@@ -3415,16 +3535,16 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="B95" t="s">
         <v>71</v>
       </c>
       <c r="C95" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="D95" t="s">
-        <v>141</v>
+        <v>195</v>
       </c>
       <c r="E95" t="s">
         <v>9</v>
@@ -3433,24 +3553,24 @@
         <v>74</v>
       </c>
       <c r="G95" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H95" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>52</v>
+        <v>330</v>
       </c>
       <c r="B96" t="s">
         <v>71</v>
       </c>
       <c r="C96" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="D96" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="E96" t="s">
         <v>9</v>
@@ -3459,82 +3579,82 @@
         <v>72</v>
       </c>
       <c r="G96" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H96" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>555</v>
+        <v>951</v>
       </c>
       <c r="B97" t="s">
         <v>71</v>
       </c>
       <c r="C97" t="s">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="D97" t="s">
-        <v>114</v>
+        <v>198</v>
       </c>
       <c r="E97" t="s">
         <v>9</v>
       </c>
       <c r="F97" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G97" t="s">
         <v>73</v>
       </c>
       <c r="H97" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>328</v>
+        <v>143</v>
       </c>
       <c r="B98" t="s">
         <v>71</v>
       </c>
       <c r="C98" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D98" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E98" t="s">
         <v>9</v>
       </c>
       <c r="F98" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G98" t="s">
         <v>73</v>
       </c>
       <c r="H98" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>349</v>
+        <v>112</v>
       </c>
       <c r="B99" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="C99" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="D99" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="E99" t="s">
         <v>9</v>
       </c>
       <c r="F99" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G99" t="s">
         <v>73</v>
@@ -3545,16 +3665,16 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>63</v>
+        <v>161</v>
       </c>
       <c r="B100" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="C100" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D100" t="s">
-        <v>195</v>
+        <v>41</v>
       </c>
       <c r="E100" t="s">
         <v>9</v>
@@ -3563,159 +3683,96 @@
         <v>74</v>
       </c>
       <c r="G100" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H100" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>330</v>
+        <v>17</v>
       </c>
       <c r="B101" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="C101" t="s">
-        <v>104</v>
-      </c>
-      <c r="D101" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="E101" t="s">
-        <v>9</v>
-      </c>
-      <c r="F101" t="s">
-        <v>72</v>
-      </c>
-      <c r="G101" t="s">
-        <v>73</v>
-      </c>
-      <c r="H101" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>951</v>
+        <v>467</v>
       </c>
       <c r="B102" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C102" t="s">
-        <v>13</v>
-      </c>
-      <c r="D102" t="s">
-        <v>198</v>
+        <v>56</v>
       </c>
       <c r="E102" t="s">
         <v>9</v>
-      </c>
-      <c r="F102" t="s">
-        <v>74</v>
-      </c>
-      <c r="G102" t="s">
-        <v>73</v>
-      </c>
-      <c r="H102" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>143</v>
-      </c>
-      <c r="B103" t="s">
-        <v>71</v>
+        <v>630</v>
       </c>
       <c r="C103" t="s">
-        <v>95</v>
-      </c>
-      <c r="D103" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="E103" t="s">
-        <v>9</v>
-      </c>
-      <c r="F103" t="s">
-        <v>74</v>
-      </c>
-      <c r="G103" t="s">
-        <v>73</v>
-      </c>
-      <c r="H103" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="B104" t="s">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="C104" t="s">
-        <v>90</v>
-      </c>
-      <c r="D104" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="E104" t="s">
-        <v>9</v>
-      </c>
-      <c r="F104" t="s">
-        <v>74</v>
-      </c>
-      <c r="G104" t="s">
-        <v>73</v>
-      </c>
-      <c r="H104" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>161</v>
+        <v>598</v>
       </c>
       <c r="B105" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="C105" t="s">
-        <v>40</v>
-      </c>
-      <c r="D105" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="E105" t="s">
         <v>9</v>
-      </c>
-      <c r="F105" t="s">
-        <v>74</v>
-      </c>
-      <c r="G105" t="s">
-        <v>79</v>
-      </c>
-      <c r="H105" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H105" xr:uid="{4EA4417A-F71B-4196-B577-437DC7EB50DB}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I107">
-    <sortCondition ref="D2:D107"/>
-    <sortCondition ref="C2:C107"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H105">
+    <sortCondition ref="D2:D105"/>
+    <sortCondition ref="C2:C105"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31351596-E0FC-46CB-B821-2B7A484F1F05}">
-  <dimension ref="A1:J228"/>
+  <dimension ref="A1:J229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:H1048576"/>
+      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A229" sqref="A229:B229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6614,16 +6671,16 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B91" t="s">
         <v>71</v>
       </c>
       <c r="C91" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="D91" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="E91" t="s">
         <v>9</v>
@@ -6635,13 +6692,13 @@
         <v>73</v>
       </c>
       <c r="H91" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I91" s="1">
-        <v>0.60343749999999996</v>
+        <v>0.61412037037037037</v>
       </c>
       <c r="J91">
-        <v>0.16</v>
+        <v>16.559999999999999</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
@@ -6670,10 +6727,10 @@
         <v>74</v>
       </c>
       <c r="I92" s="1">
-        <v>0.61412037037037037</v>
+        <v>0.60547453703703702</v>
       </c>
       <c r="J92">
-        <v>16.559999999999999</v>
+        <v>16.07</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
@@ -6702,10 +6759,10 @@
         <v>74</v>
       </c>
       <c r="I93" s="1">
-        <v>0.60547453703703702</v>
+        <v>0.61004629629629636</v>
       </c>
       <c r="J93">
-        <v>16.07</v>
+        <v>16.05</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
@@ -6734,10 +6791,10 @@
         <v>74</v>
       </c>
       <c r="I94" s="1">
-        <v>0.61004629629629636</v>
+        <v>0.6350810185185185</v>
       </c>
       <c r="J94">
-        <v>16.05</v>
+        <v>15.82</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
@@ -6766,10 +6823,10 @@
         <v>74</v>
       </c>
       <c r="I95" s="1">
-        <v>0.6350810185185185</v>
+        <v>0.63013888888888892</v>
       </c>
       <c r="J95">
-        <v>15.82</v>
+        <v>15.44</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
@@ -6798,10 +6855,10 @@
         <v>74</v>
       </c>
       <c r="I96" s="1">
-        <v>0.63013888888888892</v>
+        <v>0.62619212962962967</v>
       </c>
       <c r="J96">
-        <v>15.44</v>
+        <v>14.52</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
@@ -6830,10 +6887,10 @@
         <v>74</v>
       </c>
       <c r="I97" s="1">
-        <v>0.62619212962962967</v>
+        <v>0.64408564814814817</v>
       </c>
       <c r="J97">
-        <v>14.52</v>
+        <v>13.64</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
@@ -6862,10 +6919,10 @@
         <v>74</v>
       </c>
       <c r="I98" s="1">
-        <v>0.64408564814814817</v>
+        <v>0.57212962962962965</v>
       </c>
       <c r="J98">
-        <v>13.64</v>
+        <v>6.05</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
@@ -6894,42 +6951,42 @@
         <v>74</v>
       </c>
       <c r="I99" s="1">
-        <v>0.57212962962962965</v>
+        <v>0.6004976851851852</v>
       </c>
       <c r="J99">
-        <v>6.05</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B100" t="s">
         <v>71</v>
       </c>
       <c r="C100" t="s">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="D100" t="s">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="E100" t="s">
         <v>9</v>
       </c>
       <c r="F100" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G100" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H100" t="s">
         <v>74</v>
       </c>
       <c r="I100" s="1">
-        <v>0.6004976851851852</v>
+        <v>0.5770601851851852</v>
       </c>
       <c r="J100">
-        <v>0.57999999999999996</v>
+        <v>19.95</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
@@ -6958,10 +7015,10 @@
         <v>74</v>
       </c>
       <c r="I101" s="1">
-        <v>0.5770601851851852</v>
+        <v>0.60728009259259264</v>
       </c>
       <c r="J101">
-        <v>19.95</v>
+        <v>19.79</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
@@ -6990,10 +7047,10 @@
         <v>74</v>
       </c>
       <c r="I102" s="1">
-        <v>0.60728009259259264</v>
+        <v>0.62883101851851853</v>
       </c>
       <c r="J102">
-        <v>19.79</v>
+        <v>19.22</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
@@ -7022,10 +7079,10 @@
         <v>74</v>
       </c>
       <c r="I103" s="1">
-        <v>0.62883101851851853</v>
+        <v>0.6035300925925926</v>
       </c>
       <c r="J103">
-        <v>19.22</v>
+        <v>18.63</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
@@ -7054,10 +7111,10 @@
         <v>74</v>
       </c>
       <c r="I104" s="1">
-        <v>0.6035300925925926</v>
+        <v>0.58859953703703705</v>
       </c>
       <c r="J104">
-        <v>18.63</v>
+        <v>18.239999999999998</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
@@ -7086,10 +7143,10 @@
         <v>74</v>
       </c>
       <c r="I105" s="1">
-        <v>0.58859953703703705</v>
+        <v>0.61576388888888889</v>
       </c>
       <c r="J105">
-        <v>18.239999999999998</v>
+        <v>18.21</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
@@ -7118,10 +7175,10 @@
         <v>74</v>
       </c>
       <c r="I106" s="1">
-        <v>0.61576388888888889</v>
+        <v>0.63336805555555553</v>
       </c>
       <c r="J106">
-        <v>18.21</v>
+        <v>17.36</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
@@ -7150,10 +7207,10 @@
         <v>74</v>
       </c>
       <c r="I107" s="1">
-        <v>0.63336805555555553</v>
+        <v>0.62528935185185186</v>
       </c>
       <c r="J107">
-        <v>17.36</v>
+        <v>17.21</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
@@ -7182,10 +7239,10 @@
         <v>74</v>
       </c>
       <c r="I108" s="1">
-        <v>0.62528935185185186</v>
+        <v>0.63761574074074068</v>
       </c>
       <c r="J108">
-        <v>17.21</v>
+        <v>16.91</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
@@ -7214,10 +7271,10 @@
         <v>74</v>
       </c>
       <c r="I109" s="1">
-        <v>0.63761574074074068</v>
+        <v>0.58325231481481488</v>
       </c>
       <c r="J109">
-        <v>16.91</v>
+        <v>16.440000000000001</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
@@ -7246,24 +7303,24 @@
         <v>74</v>
       </c>
       <c r="I110" s="1">
-        <v>0.58325231481481488</v>
+        <v>0.54424768518518518</v>
       </c>
       <c r="J110">
-        <v>16.440000000000001</v>
+        <v>4.8899999999999997</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>210</v>
+        <v>248</v>
       </c>
       <c r="B111" t="s">
         <v>71</v>
       </c>
       <c r="C111" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="D111" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="E111" t="s">
         <v>9</v>
@@ -7272,16 +7329,16 @@
         <v>74</v>
       </c>
       <c r="G111" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H111" t="s">
         <v>74</v>
       </c>
       <c r="I111" s="1">
-        <v>0.54424768518518518</v>
+        <v>0.55150462962962965</v>
       </c>
       <c r="J111">
-        <v>4.8899999999999997</v>
+        <v>4.71</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
@@ -7310,24 +7367,24 @@
         <v>74</v>
       </c>
       <c r="I112" s="1">
-        <v>0.55150462962962965</v>
+        <v>0.64694444444444443</v>
       </c>
       <c r="J112">
-        <v>4.71</v>
+        <v>4.6900000000000004</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>248</v>
+        <v>292</v>
       </c>
       <c r="B113" t="s">
         <v>71</v>
       </c>
       <c r="C113" t="s">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="D113" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="E113" t="s">
         <v>9</v>
@@ -7342,10 +7399,10 @@
         <v>74</v>
       </c>
       <c r="I113" s="1">
-        <v>0.64694444444444443</v>
+        <v>0.6118865740740741</v>
       </c>
       <c r="J113">
-        <v>4.6900000000000004</v>
+        <v>19.47</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
@@ -7374,10 +7431,10 @@
         <v>74</v>
       </c>
       <c r="I114" s="1">
-        <v>0.6118865740740741</v>
+        <v>0.62837962962962968</v>
       </c>
       <c r="J114">
-        <v>19.47</v>
+        <v>19.05</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
@@ -7406,10 +7463,10 @@
         <v>74</v>
       </c>
       <c r="I115" s="1">
-        <v>0.62837962962962968</v>
+        <v>0.60909722222222229</v>
       </c>
       <c r="J115">
-        <v>19.05</v>
+        <v>18.63</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
@@ -7438,10 +7495,10 @@
         <v>74</v>
       </c>
       <c r="I116" s="1">
-        <v>0.60909722222222229</v>
+        <v>0.61537037037037035</v>
       </c>
       <c r="J116">
-        <v>18.63</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
@@ -7470,10 +7527,10 @@
         <v>74</v>
       </c>
       <c r="I117" s="1">
-        <v>0.61537037037037035</v>
+        <v>0.60340277777777784</v>
       </c>
       <c r="J117">
-        <v>18.3</v>
+        <v>18.25</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
@@ -7502,10 +7559,10 @@
         <v>74</v>
       </c>
       <c r="I118" s="1">
-        <v>0.60340277777777784</v>
+        <v>0.62525462962962963</v>
       </c>
       <c r="J118">
-        <v>18.25</v>
+        <v>17.149999999999999</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
@@ -7534,10 +7591,10 @@
         <v>74</v>
       </c>
       <c r="I119" s="1">
-        <v>0.62525462962962963</v>
+        <v>0.55699074074074073</v>
       </c>
       <c r="J119">
-        <v>17.149999999999999</v>
+        <v>14.48</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
@@ -7566,42 +7623,42 @@
         <v>74</v>
       </c>
       <c r="I120" s="1">
-        <v>0.55699074074074073</v>
+        <v>0.63932870370370376</v>
       </c>
       <c r="J120">
-        <v>14.48</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>292</v>
+        <v>328</v>
       </c>
       <c r="B121" t="s">
         <v>71</v>
       </c>
       <c r="C121" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="D121" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="E121" t="s">
         <v>9</v>
       </c>
       <c r="F121" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G121" t="s">
         <v>73</v>
       </c>
       <c r="H121" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I121" s="1">
-        <v>0.63932870370370376</v>
+        <v>0.52568287037037031</v>
       </c>
       <c r="J121">
-        <v>1.98</v>
+        <v>20.67</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
@@ -7630,10 +7687,10 @@
         <v>76</v>
       </c>
       <c r="I122" s="1">
-        <v>0.52568287037037031</v>
+        <v>0.61152777777777778</v>
       </c>
       <c r="J122">
-        <v>20.67</v>
+        <v>20.170000000000002</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
@@ -7662,10 +7719,10 @@
         <v>76</v>
       </c>
       <c r="I123" s="1">
-        <v>0.61152777777777778</v>
+        <v>0.63025462962962964</v>
       </c>
       <c r="J123">
-        <v>20.170000000000002</v>
+        <v>19.78</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
@@ -7694,10 +7751,10 @@
         <v>76</v>
       </c>
       <c r="I124" s="1">
-        <v>0.63025462962962964</v>
+        <v>0.60420138888888886</v>
       </c>
       <c r="J124">
-        <v>19.78</v>
+        <v>19.489999999999998</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
@@ -7726,10 +7783,10 @@
         <v>76</v>
       </c>
       <c r="I125" s="1">
-        <v>0.60420138888888886</v>
+        <v>0.61501157407407414</v>
       </c>
       <c r="J125">
-        <v>19.489999999999998</v>
+        <v>18.98</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
@@ -7758,10 +7815,10 @@
         <v>76</v>
       </c>
       <c r="I126" s="1">
-        <v>0.61501157407407414</v>
+        <v>0.60123842592592591</v>
       </c>
       <c r="J126">
-        <v>18.98</v>
+        <v>18.920000000000002</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
@@ -7790,10 +7847,10 @@
         <v>76</v>
       </c>
       <c r="I127" s="1">
-        <v>0.60123842592592591</v>
+        <v>0.60797453703703697</v>
       </c>
       <c r="J127">
-        <v>18.920000000000002</v>
+        <v>18.09</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
@@ -7822,10 +7879,10 @@
         <v>76</v>
       </c>
       <c r="I128" s="1">
-        <v>0.60797453703703697</v>
+        <v>0.63530092592592591</v>
       </c>
       <c r="J128">
-        <v>18.09</v>
+        <v>17.260000000000002</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
@@ -7854,10 +7911,10 @@
         <v>76</v>
       </c>
       <c r="I129" s="1">
-        <v>0.63530092592592591</v>
+        <v>0.64151620370370377</v>
       </c>
       <c r="J129">
-        <v>17.260000000000002</v>
+        <v>16.22</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
@@ -7886,10 +7943,10 @@
         <v>76</v>
       </c>
       <c r="I130" s="1">
-        <v>0.64151620370370377</v>
+        <v>0.55157407407407411</v>
       </c>
       <c r="J130">
-        <v>16.22</v>
+        <v>4.3600000000000003</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
@@ -7918,24 +7975,24 @@
         <v>76</v>
       </c>
       <c r="I131" s="1">
-        <v>0.55157407407407411</v>
+        <v>0.6529166666666667</v>
       </c>
       <c r="J131">
-        <v>4.3600000000000003</v>
+        <v>4.01</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B132" t="s">
         <v>71</v>
       </c>
       <c r="C132" t="s">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="D132" t="s">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="E132" t="s">
         <v>9</v>
@@ -7947,13 +8004,13 @@
         <v>73</v>
       </c>
       <c r="H132" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I132" s="1">
-        <v>0.6529166666666667</v>
+        <v>0.57446759259259261</v>
       </c>
       <c r="J132">
-        <v>4.01</v>
+        <v>16.97</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
@@ -7982,10 +8039,10 @@
         <v>74</v>
       </c>
       <c r="I133" s="1">
-        <v>0.57446759259259261</v>
+        <v>0.56885416666666666</v>
       </c>
       <c r="J133">
-        <v>16.97</v>
+        <v>16.88</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
@@ -8014,10 +8071,10 @@
         <v>74</v>
       </c>
       <c r="I134" s="1">
-        <v>0.56885416666666666</v>
+        <v>0.56032407407407414</v>
       </c>
       <c r="J134">
-        <v>16.88</v>
+        <v>16.690000000000001</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
@@ -8046,24 +8103,24 @@
         <v>74</v>
       </c>
       <c r="I135" s="1">
-        <v>0.56032407407407414</v>
+        <v>0.58215277777777774</v>
       </c>
       <c r="J135">
-        <v>16.690000000000001</v>
+        <v>12.91</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B136" t="s">
         <v>71</v>
       </c>
       <c r="C136" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="D136" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="E136" t="s">
         <v>9</v>
@@ -8078,10 +8135,10 @@
         <v>74</v>
       </c>
       <c r="I136" s="1">
-        <v>0.58215277777777774</v>
+        <v>0.57140046296296299</v>
       </c>
       <c r="J136">
-        <v>12.91</v>
+        <v>5.92</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
@@ -8110,30 +8167,30 @@
         <v>74</v>
       </c>
       <c r="I137" s="1">
-        <v>0.57140046296296299</v>
+        <v>0.55953703703703705</v>
       </c>
       <c r="J137">
-        <v>5.92</v>
+        <v>5.47</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="B138" t="s">
         <v>71</v>
       </c>
       <c r="C138" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D138" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E138" t="s">
         <v>9</v>
       </c>
       <c r="F138" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="G138" t="s">
         <v>73</v>
@@ -8142,10 +8199,10 @@
         <v>74</v>
       </c>
       <c r="I138" s="1">
-        <v>0.55953703703703705</v>
+        <v>0.62662037037037044</v>
       </c>
       <c r="J138">
-        <v>5.47</v>
+        <v>15.16</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
@@ -8174,10 +8231,10 @@
         <v>74</v>
       </c>
       <c r="I139" s="1">
-        <v>0.62662037037037044</v>
+        <v>0.63750000000000007</v>
       </c>
       <c r="J139">
-        <v>15.16</v>
+        <v>14.38</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
@@ -8206,10 +8263,10 @@
         <v>74</v>
       </c>
       <c r="I140" s="1">
-        <v>0.63750000000000007</v>
+        <v>0.56958333333333333</v>
       </c>
       <c r="J140">
-        <v>14.38</v>
+        <v>13.27</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
@@ -8238,10 +8295,10 @@
         <v>74</v>
       </c>
       <c r="I141" s="1">
-        <v>0.56958333333333333</v>
+        <v>0.57876157407407403</v>
       </c>
       <c r="J141">
-        <v>13.27</v>
+        <v>10.86</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
@@ -8270,10 +8327,10 @@
         <v>74</v>
       </c>
       <c r="I142" s="1">
-        <v>0.57876157407407403</v>
+        <v>0.5473958333333333</v>
       </c>
       <c r="J142">
-        <v>10.86</v>
+        <v>6.07</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
@@ -8302,30 +8359,30 @@
         <v>74</v>
       </c>
       <c r="I143" s="1">
-        <v>0.5473958333333333</v>
+        <v>0.65108796296296301</v>
       </c>
       <c r="J143">
-        <v>6.07</v>
+        <v>4.37</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B144" t="s">
         <v>71</v>
       </c>
       <c r="C144" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D144" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E144" t="s">
         <v>9</v>
       </c>
       <c r="F144" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="G144" t="s">
         <v>73</v>
@@ -8334,10 +8391,10 @@
         <v>74</v>
       </c>
       <c r="I144" s="1">
-        <v>0.65108796296296301</v>
+        <v>0.63090277777777781</v>
       </c>
       <c r="J144">
-        <v>4.37</v>
+        <v>6.76</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
@@ -8366,24 +8423,24 @@
         <v>74</v>
       </c>
       <c r="I145" s="1">
-        <v>0.63090277777777781</v>
+        <v>0.64271990740740736</v>
       </c>
       <c r="J145">
-        <v>6.76</v>
+        <v>5.27</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B146" t="s">
         <v>71</v>
       </c>
       <c r="C146" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D146" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E146" t="s">
         <v>9</v>
@@ -8398,10 +8455,10 @@
         <v>74</v>
       </c>
       <c r="I146" s="1">
-        <v>0.64271990740740736</v>
+        <v>0.57980324074074074</v>
       </c>
       <c r="J146">
-        <v>5.27</v>
+        <v>5.03</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
@@ -8430,10 +8487,10 @@
         <v>74</v>
       </c>
       <c r="I147" s="1">
-        <v>0.57980324074074074</v>
+        <v>0.55728009259259259</v>
       </c>
       <c r="J147">
-        <v>5.03</v>
+        <v>4.62</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
@@ -8462,24 +8519,24 @@
         <v>74</v>
       </c>
       <c r="I148" s="1">
-        <v>0.55728009259259259</v>
+        <v>0.64550925925925928</v>
       </c>
       <c r="J148">
-        <v>4.62</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="B149" t="s">
         <v>71</v>
       </c>
       <c r="C149" t="s">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="D149" t="s">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c r="E149" t="s">
         <v>9</v>
@@ -8491,13 +8548,13 @@
         <v>73</v>
       </c>
       <c r="H149" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I149" s="1">
-        <v>0.64550925925925928</v>
+        <v>0.54174768518518512</v>
       </c>
       <c r="J149">
-        <v>4.51</v>
+        <v>19.010000000000002</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
@@ -8526,10 +8583,10 @@
         <v>76</v>
       </c>
       <c r="I150" s="1">
-        <v>0.54174768518518512</v>
+        <v>0.62784722222222222</v>
       </c>
       <c r="J150">
-        <v>19.010000000000002</v>
+        <v>18.89</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
@@ -8558,10 +8615,10 @@
         <v>76</v>
       </c>
       <c r="I151" s="1">
-        <v>0.62784722222222222</v>
+        <v>0.63050925925925927</v>
       </c>
       <c r="J151">
-        <v>18.89</v>
+        <v>18.64</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
@@ -8590,10 +8647,10 @@
         <v>76</v>
       </c>
       <c r="I152" s="1">
-        <v>0.63050925925925927</v>
+        <v>0.53228009259259257</v>
       </c>
       <c r="J152">
-        <v>18.64</v>
+        <v>18.36</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
@@ -8622,10 +8679,10 @@
         <v>76</v>
       </c>
       <c r="I153" s="1">
-        <v>0.53228009259259257</v>
+        <v>0.55709490740740741</v>
       </c>
       <c r="J153">
-        <v>18.36</v>
+        <v>17.989999999999998</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
@@ -8654,10 +8711,10 @@
         <v>76</v>
       </c>
       <c r="I154" s="1">
-        <v>0.55709490740740741</v>
+        <v>0.52805555555555561</v>
       </c>
       <c r="J154">
-        <v>17.989999999999998</v>
+        <v>17.77</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
@@ -8686,10 +8743,10 @@
         <v>76</v>
       </c>
       <c r="I155" s="1">
-        <v>0.52805555555555561</v>
+        <v>0.62474537037037037</v>
       </c>
       <c r="J155">
-        <v>17.77</v>
+        <v>17.7</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
@@ -8718,10 +8775,10 @@
         <v>76</v>
       </c>
       <c r="I156" s="1">
-        <v>0.62474537037037037</v>
+        <v>0.63326388888888896</v>
       </c>
       <c r="J156">
-        <v>17.7</v>
+        <v>17.45</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
@@ -8750,10 +8807,10 @@
         <v>76</v>
       </c>
       <c r="I157" s="1">
-        <v>0.63326388888888896</v>
+        <v>0.55296296296296299</v>
       </c>
       <c r="J157">
-        <v>17.45</v>
+        <v>17.3</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
@@ -8782,10 +8839,10 @@
         <v>76</v>
       </c>
       <c r="I158" s="1">
-        <v>0.55296296296296299</v>
+        <v>0.63604166666666673</v>
       </c>
       <c r="J158">
-        <v>17.3</v>
+        <v>16.45</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
@@ -8814,10 +8871,10 @@
         <v>76</v>
       </c>
       <c r="I159" s="1">
-        <v>0.63604166666666673</v>
+        <v>0.63965277777777774</v>
       </c>
       <c r="J159">
-        <v>16.45</v>
+        <v>16.22</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
@@ -8846,10 +8903,10 @@
         <v>76</v>
       </c>
       <c r="I160" s="1">
-        <v>0.63965277777777774</v>
+        <v>0.62086805555555558</v>
       </c>
       <c r="J160">
-        <v>16.22</v>
+        <v>15.98</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
@@ -8878,74 +8935,74 @@
         <v>76</v>
       </c>
       <c r="I161" s="1">
-        <v>0.62086805555555558</v>
+        <v>0.65355324074074073</v>
       </c>
       <c r="J161">
-        <v>15.98</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>358</v>
+        <v>420</v>
       </c>
       <c r="B162" t="s">
         <v>71</v>
       </c>
       <c r="C162" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D162" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E162" t="s">
         <v>9</v>
       </c>
       <c r="F162" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G162" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H162" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I162" s="1">
-        <v>0.65355324074074073</v>
+        <v>0.55967592592592597</v>
       </c>
       <c r="J162">
-        <v>3.9</v>
+        <v>5.64</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="B163" t="s">
         <v>71</v>
       </c>
       <c r="C163" t="s">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="D163" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="E163" t="s">
         <v>9</v>
       </c>
       <c r="F163" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="G163" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H163" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I163" s="1">
-        <v>0.55967592592592597</v>
+        <v>0.63487268518518525</v>
       </c>
       <c r="J163">
-        <v>5.64</v>
+        <v>16.46</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
@@ -8974,10 +9031,10 @@
         <v>76</v>
       </c>
       <c r="I164" s="1">
-        <v>0.63487268518518525</v>
+        <v>0.56967592592592597</v>
       </c>
       <c r="J164">
-        <v>16.46</v>
+        <v>15.93</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
@@ -9006,10 +9063,10 @@
         <v>76</v>
       </c>
       <c r="I165" s="1">
-        <v>0.56967592592592597</v>
+        <v>0.61675925925925923</v>
       </c>
       <c r="J165">
-        <v>15.93</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
@@ -9038,106 +9095,106 @@
         <v>76</v>
       </c>
       <c r="I166" s="1">
-        <v>0.61675925925925923</v>
+        <v>0.58568287037037037</v>
       </c>
       <c r="J166">
-        <v>15.6</v>
+        <v>7.46</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>425</v>
+        <v>555</v>
       </c>
       <c r="B167" t="s">
         <v>71</v>
       </c>
       <c r="C167" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D167" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E167" t="s">
         <v>9</v>
       </c>
       <c r="F167" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="G167" t="s">
         <v>73</v>
       </c>
       <c r="H167" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I167" s="1">
-        <v>0.58568287037037037</v>
+        <v>0.5461111111111111</v>
       </c>
       <c r="J167">
-        <v>7.46</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>555</v>
+        <v>571</v>
       </c>
       <c r="B168" t="s">
         <v>71</v>
       </c>
       <c r="C168" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D168" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E168" t="s">
         <v>9</v>
       </c>
       <c r="F168" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="G168" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H168" t="s">
         <v>74</v>
       </c>
       <c r="I168" s="1">
-        <v>0.5461111111111111</v>
+        <v>0.65072916666666669</v>
       </c>
       <c r="J168">
-        <v>3.83</v>
+        <v>3.82</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>571</v>
+        <v>625</v>
       </c>
       <c r="B169" t="s">
         <v>71</v>
       </c>
       <c r="C169" t="s">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="D169" t="s">
-        <v>116</v>
+        <v>61</v>
       </c>
       <c r="E169" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="F169" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="G169" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H169" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I169" s="1">
-        <v>0.65072916666666669</v>
+        <v>0.52119212962962969</v>
       </c>
       <c r="J169">
-        <v>3.82</v>
+        <v>24.48</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
@@ -9166,10 +9223,10 @@
         <v>76</v>
       </c>
       <c r="I170" s="1">
-        <v>0.52119212962962969</v>
+        <v>0.52629629629629626</v>
       </c>
       <c r="J170">
-        <v>24.48</v>
+        <v>23.75</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
@@ -9198,10 +9255,10 @@
         <v>76</v>
       </c>
       <c r="I171" s="1">
-        <v>0.52629629629629626</v>
+        <v>0.53001157407407407</v>
       </c>
       <c r="J171">
-        <v>23.75</v>
+        <v>22.54</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
@@ -9230,10 +9287,10 @@
         <v>76</v>
       </c>
       <c r="I172" s="1">
-        <v>0.53001157407407407</v>
+        <v>0.60684027777777783</v>
       </c>
       <c r="J172">
-        <v>22.54</v>
+        <v>21.89</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
@@ -9262,10 +9319,10 @@
         <v>76</v>
       </c>
       <c r="I173" s="1">
-        <v>0.60684027777777783</v>
+        <v>0.5708333333333333</v>
       </c>
       <c r="J173">
-        <v>21.89</v>
+        <v>21.63</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
@@ -9294,10 +9351,10 @@
         <v>76</v>
       </c>
       <c r="I174" s="1">
-        <v>0.5708333333333333</v>
+        <v>0.56097222222222221</v>
       </c>
       <c r="J174">
-        <v>21.63</v>
+        <v>21.27</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
@@ -9326,10 +9383,10 @@
         <v>76</v>
       </c>
       <c r="I175" s="1">
-        <v>0.56097222222222221</v>
+        <v>0.56756944444444446</v>
       </c>
       <c r="J175">
-        <v>21.27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
@@ -9358,10 +9415,10 @@
         <v>76</v>
       </c>
       <c r="I176" s="1">
-        <v>0.56756944444444446</v>
+        <v>0.60225694444444444</v>
       </c>
       <c r="J176">
-        <v>21</v>
+        <v>20.97</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
@@ -9390,10 +9447,10 @@
         <v>76</v>
       </c>
       <c r="I177" s="1">
-        <v>0.60225694444444444</v>
+        <v>0.50906249999999997</v>
       </c>
       <c r="J177">
-        <v>20.97</v>
+        <v>19.96</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
@@ -9422,10 +9479,10 @@
         <v>76</v>
       </c>
       <c r="I178" s="1">
-        <v>0.50906249999999997</v>
+        <v>0.63241898148148146</v>
       </c>
       <c r="J178">
-        <v>19.96</v>
+        <v>19.73</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
@@ -9454,10 +9511,10 @@
         <v>76</v>
       </c>
       <c r="I179" s="1">
-        <v>0.63241898148148146</v>
+        <v>0.63609953703703703</v>
       </c>
       <c r="J179">
-        <v>19.73</v>
+        <v>19.399999999999999</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
@@ -9486,10 +9543,10 @@
         <v>76</v>
       </c>
       <c r="I180" s="1">
-        <v>0.63609953703703703</v>
+        <v>0.61113425925925924</v>
       </c>
       <c r="J180">
-        <v>19.399999999999999</v>
+        <v>18.93</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
@@ -9518,10 +9575,10 @@
         <v>76</v>
       </c>
       <c r="I181" s="1">
-        <v>0.61113425925925924</v>
+        <v>0.64318287037037036</v>
       </c>
       <c r="J181">
-        <v>18.93</v>
+        <v>18.59</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
@@ -9550,24 +9607,24 @@
         <v>76</v>
       </c>
       <c r="I182" s="1">
-        <v>0.64318287037037036</v>
+        <v>0.64761574074074069</v>
       </c>
       <c r="J182">
-        <v>18.59</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B183" t="s">
         <v>71</v>
       </c>
       <c r="C183" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="D183" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="E183" t="s">
         <v>62</v>
@@ -9579,13 +9636,13 @@
         <v>73</v>
       </c>
       <c r="H183" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I183" s="1">
-        <v>0.64761574074074069</v>
+        <v>0.54025462962962967</v>
       </c>
       <c r="J183">
-        <v>14.29</v>
+        <v>15.44</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
@@ -9614,56 +9671,56 @@
         <v>74</v>
       </c>
       <c r="I184" s="1">
-        <v>0.54025462962962967</v>
+        <v>0.60675925925925933</v>
       </c>
       <c r="J184">
-        <v>15.44</v>
+        <v>11.22</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>626</v>
+        <v>670</v>
       </c>
       <c r="B185" t="s">
         <v>71</v>
       </c>
       <c r="C185" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="D185" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E185" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="F185" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G185" t="s">
         <v>73</v>
       </c>
       <c r="H185" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I185" s="1">
-        <v>0.60675925925925933</v>
+        <v>0.5647106481481482</v>
       </c>
       <c r="J185">
-        <v>11.22</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>670</v>
+        <v>681</v>
       </c>
       <c r="B186" t="s">
         <v>71</v>
       </c>
       <c r="C186" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="D186" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E186" t="s">
         <v>9</v>
@@ -9678,10 +9735,10 @@
         <v>76</v>
       </c>
       <c r="I186" s="1">
-        <v>0.5647106481481482</v>
+        <v>0.62824074074074077</v>
       </c>
       <c r="J186">
-        <v>5.01</v>
+        <v>19.66</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
@@ -9710,10 +9767,10 @@
         <v>76</v>
       </c>
       <c r="I187" s="1">
-        <v>0.62824074074074077</v>
+        <v>0.54035879629629624</v>
       </c>
       <c r="J187">
-        <v>19.66</v>
+        <v>19.23</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
@@ -9742,10 +9799,10 @@
         <v>76</v>
       </c>
       <c r="I188" s="1">
-        <v>0.54035879629629624</v>
+        <v>0.55559027777777781</v>
       </c>
       <c r="J188">
-        <v>19.23</v>
+        <v>18.68</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
@@ -9774,10 +9831,10 @@
         <v>76</v>
       </c>
       <c r="I189" s="1">
-        <v>0.55559027777777781</v>
+        <v>0.63099537037037035</v>
       </c>
       <c r="J189">
-        <v>18.68</v>
+        <v>18.170000000000002</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
@@ -9806,10 +9863,10 @@
         <v>76</v>
       </c>
       <c r="I190" s="1">
-        <v>0.63099537037037035</v>
+        <v>0.52765046296296292</v>
       </c>
       <c r="J190">
-        <v>18.170000000000002</v>
+        <v>18.09</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
@@ -9838,10 +9895,10 @@
         <v>76</v>
       </c>
       <c r="I191" s="1">
-        <v>0.52765046296296292</v>
+        <v>0.63434027777777779</v>
       </c>
       <c r="J191">
-        <v>18.09</v>
+        <v>17.989999999999998</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
@@ -9870,10 +9927,10 @@
         <v>76</v>
       </c>
       <c r="I192" s="1">
-        <v>0.63434027777777779</v>
+        <v>0.53309027777777784</v>
       </c>
       <c r="J192">
-        <v>17.989999999999998</v>
+        <v>17.97</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
@@ -9902,42 +9959,42 @@
         <v>76</v>
       </c>
       <c r="I193" s="1">
-        <v>0.53309027777777784</v>
+        <v>0.625</v>
       </c>
       <c r="J193">
-        <v>17.97</v>
+        <v>17.59</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>681</v>
+        <v>714</v>
       </c>
       <c r="B194" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="C194" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="D194" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E194" t="s">
         <v>9</v>
       </c>
       <c r="F194" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="G194" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H194" t="s">
         <v>76</v>
       </c>
       <c r="I194" s="1">
-        <v>0.625</v>
+        <v>0.6156018518518519</v>
       </c>
       <c r="J194">
-        <v>17.59</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
@@ -9966,10 +10023,10 @@
         <v>76</v>
       </c>
       <c r="I195" s="1">
-        <v>0.6156018518518519</v>
+        <v>0.55641203703703701</v>
       </c>
       <c r="J195">
-        <v>10.8</v>
+        <v>6.13</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
@@ -9998,24 +10055,24 @@
         <v>76</v>
       </c>
       <c r="I196" s="1">
-        <v>0.55641203703703701</v>
+        <v>0.56518518518518512</v>
       </c>
       <c r="J196">
-        <v>6.13</v>
+        <v>5.42</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>714</v>
+        <v>852</v>
       </c>
       <c r="B197" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C197" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="D197" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E197" t="s">
         <v>9</v>
@@ -10024,16 +10081,16 @@
         <v>88</v>
       </c>
       <c r="G197" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H197" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I197" s="1">
-        <v>0.56518518518518512</v>
+        <v>0.57641203703703703</v>
       </c>
       <c r="J197">
-        <v>5.42</v>
+        <v>7.24</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
@@ -10062,30 +10119,30 @@
         <v>74</v>
       </c>
       <c r="I198" s="1">
-        <v>0.57641203703703703</v>
+        <v>0.54570601851851852</v>
       </c>
       <c r="J198">
-        <v>7.24</v>
+        <v>5.77</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>852</v>
+        <v>863</v>
       </c>
       <c r="B199" t="s">
         <v>71</v>
       </c>
       <c r="C199" t="s">
-        <v>122</v>
+        <v>64</v>
       </c>
       <c r="D199" t="s">
-        <v>123</v>
+        <v>65</v>
       </c>
       <c r="E199" t="s">
         <v>9</v>
       </c>
       <c r="F199" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="G199" t="s">
         <v>73</v>
@@ -10094,10 +10151,10 @@
         <v>74</v>
       </c>
       <c r="I199" s="1">
-        <v>0.54570601851851852</v>
+        <v>0.60517361111111112</v>
       </c>
       <c r="J199">
-        <v>5.77</v>
+        <v>19.14</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
@@ -10126,10 +10183,10 @@
         <v>74</v>
       </c>
       <c r="I200" s="1">
-        <v>0.60517361111111112</v>
+        <v>0.52613425925925927</v>
       </c>
       <c r="J200">
-        <v>19.14</v>
+        <v>18.48</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
@@ -10158,7 +10215,7 @@
         <v>74</v>
       </c>
       <c r="I201" s="1">
-        <v>0.52613425925925927</v>
+        <v>0.60106481481481489</v>
       </c>
       <c r="J201">
         <v>18.48</v>
@@ -10190,10 +10247,10 @@
         <v>74</v>
       </c>
       <c r="I202" s="1">
-        <v>0.60106481481481489</v>
+        <v>0.61311342592592599</v>
       </c>
       <c r="J202">
-        <v>18.48</v>
+        <v>18.43</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
@@ -10222,10 +10279,10 @@
         <v>74</v>
       </c>
       <c r="I203" s="1">
-        <v>0.61311342592592599</v>
+        <v>0.60968750000000005</v>
       </c>
       <c r="J203">
-        <v>18.43</v>
+        <v>17.68</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
@@ -10254,10 +10311,10 @@
         <v>74</v>
       </c>
       <c r="I204" s="1">
-        <v>0.60968750000000005</v>
+        <v>0.57396990740740739</v>
       </c>
       <c r="J204">
-        <v>17.68</v>
+        <v>17.399999999999999</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
@@ -10286,10 +10343,10 @@
         <v>74</v>
       </c>
       <c r="I205" s="1">
-        <v>0.57396990740740739</v>
+        <v>0.56218749999999995</v>
       </c>
       <c r="J205">
-        <v>17.399999999999999</v>
+        <v>16.64</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
@@ -10318,30 +10375,30 @@
         <v>74</v>
       </c>
       <c r="I206" s="1">
-        <v>0.56218749999999995</v>
+        <v>0.56905092592592588</v>
       </c>
       <c r="J206">
-        <v>16.64</v>
+        <v>16.100000000000001</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>863</v>
+        <v>888</v>
       </c>
       <c r="B207" t="s">
         <v>71</v>
       </c>
       <c r="C207" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="D207" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E207" t="s">
         <v>9</v>
       </c>
       <c r="F207" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G207" t="s">
         <v>73</v>
@@ -10350,24 +10407,24 @@
         <v>74</v>
       </c>
       <c r="I207" s="1">
-        <v>0.56905092592592588</v>
+        <v>0.52497685185185183</v>
       </c>
       <c r="J207">
-        <v>16.100000000000001</v>
+        <v>17.87</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>888</v>
+        <v>1966</v>
       </c>
       <c r="B208" t="s">
         <v>71</v>
       </c>
       <c r="C208" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="D208" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="E208" t="s">
         <v>9</v>
@@ -10376,33 +10433,33 @@
         <v>74</v>
       </c>
       <c r="G208" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H208" t="s">
         <v>74</v>
       </c>
       <c r="I208" s="1">
-        <v>0.52497685185185183</v>
+        <v>0.56827546296296294</v>
       </c>
       <c r="J208">
-        <v>17.87</v>
+        <v>3.98</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>1966</v>
+        <v>3021</v>
       </c>
       <c r="B209" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="C209" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D209" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E209" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F209" t="s">
         <v>74</v>
@@ -10414,10 +10471,10 @@
         <v>74</v>
       </c>
       <c r="I209" s="1">
-        <v>0.56827546296296294</v>
+        <v>0.51960648148148147</v>
       </c>
       <c r="J209">
-        <v>3.98</v>
+        <v>18.350000000000001</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
@@ -10446,10 +10503,10 @@
         <v>74</v>
       </c>
       <c r="I210" s="1">
-        <v>0.51960648148148147</v>
+        <v>0.52535879629629634</v>
       </c>
       <c r="J210">
-        <v>18.350000000000001</v>
+        <v>18.27</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
@@ -10478,10 +10535,10 @@
         <v>74</v>
       </c>
       <c r="I211" s="1">
-        <v>0.52535879629629634</v>
+        <v>0.53142361111111114</v>
       </c>
       <c r="J211">
-        <v>18.27</v>
+        <v>17.55</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
@@ -10510,10 +10567,10 @@
         <v>74</v>
       </c>
       <c r="I212" s="1">
-        <v>0.53142361111111114</v>
+        <v>0.63069444444444445</v>
       </c>
       <c r="J212">
-        <v>17.55</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
@@ -10542,10 +10599,10 @@
         <v>74</v>
       </c>
       <c r="I213" s="1">
-        <v>0.63069444444444445</v>
+        <v>0.5429166666666666</v>
       </c>
       <c r="J213">
-        <v>16.7</v>
+        <v>16.579999999999998</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
@@ -10574,10 +10631,10 @@
         <v>74</v>
       </c>
       <c r="I214" s="1">
-        <v>0.5429166666666666</v>
+        <v>0.57351851851851854</v>
       </c>
       <c r="J214">
-        <v>16.579999999999998</v>
+        <v>16.53</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
@@ -10606,10 +10663,10 @@
         <v>74</v>
       </c>
       <c r="I215" s="1">
-        <v>0.57351851851851854</v>
+        <v>0.61086805555555557</v>
       </c>
       <c r="J215">
-        <v>16.53</v>
+        <v>16.52</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
@@ -10638,7 +10695,7 @@
         <v>74</v>
       </c>
       <c r="I216" s="1">
-        <v>0.61086805555555557</v>
+        <v>0.62738425925925922</v>
       </c>
       <c r="J216">
         <v>16.52</v>
@@ -10670,7 +10727,7 @@
         <v>74</v>
       </c>
       <c r="I217" s="1">
-        <v>0.62738425925925922</v>
+        <v>0.60350694444444442</v>
       </c>
       <c r="J217">
         <v>16.52</v>
@@ -10702,10 +10759,10 @@
         <v>74</v>
       </c>
       <c r="I218" s="1">
-        <v>0.60350694444444442</v>
+        <v>0.61567129629629636</v>
       </c>
       <c r="J218">
-        <v>16.52</v>
+        <v>16.48</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
@@ -10734,10 +10791,10 @@
         <v>74</v>
       </c>
       <c r="I219" s="1">
-        <v>0.61567129629629636</v>
+        <v>0.5681018518518518</v>
       </c>
       <c r="J219">
-        <v>16.48</v>
+        <v>16.41</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
@@ -10766,10 +10823,10 @@
         <v>74</v>
       </c>
       <c r="I220" s="1">
-        <v>0.5681018518518518</v>
+        <v>0.53740740740740744</v>
       </c>
       <c r="J220">
-        <v>16.41</v>
+        <v>16.25</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
@@ -10798,10 +10855,10 @@
         <v>74</v>
       </c>
       <c r="I221" s="1">
-        <v>0.53740740740740744</v>
+        <v>0.57879629629629636</v>
       </c>
       <c r="J221">
-        <v>16.25</v>
+        <v>16.12</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
@@ -10830,10 +10887,10 @@
         <v>74</v>
       </c>
       <c r="I222" s="1">
-        <v>0.57879629629629636</v>
+        <v>0.6071064814814815</v>
       </c>
       <c r="J222">
-        <v>16.12</v>
+        <v>16.100000000000001</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
@@ -10862,10 +10919,10 @@
         <v>74</v>
       </c>
       <c r="I223" s="1">
-        <v>0.6071064814814815</v>
+        <v>0.56226851851851845</v>
       </c>
       <c r="J223">
-        <v>16.100000000000001</v>
+        <v>16.04</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
@@ -10894,10 +10951,10 @@
         <v>74</v>
       </c>
       <c r="I224" s="1">
-        <v>0.56226851851851845</v>
+        <v>0.55637731481481478</v>
       </c>
       <c r="J224">
-        <v>16.04</v>
+        <v>16.02</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
@@ -10926,10 +10983,10 @@
         <v>74</v>
       </c>
       <c r="I225" s="1">
-        <v>0.55637731481481478</v>
+        <v>0.58478009259259256</v>
       </c>
       <c r="J225">
-        <v>16.02</v>
+        <v>15.16</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
@@ -10958,10 +11015,10 @@
         <v>74</v>
       </c>
       <c r="I226" s="1">
-        <v>0.58478009259259256</v>
+        <v>0.63657407407407407</v>
       </c>
       <c r="J226">
-        <v>15.16</v>
+        <v>14.96</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
@@ -10990,57 +11047,34 @@
         <v>74</v>
       </c>
       <c r="I227" s="1">
-        <v>0.63657407407407407</v>
+        <v>0.55071759259259256</v>
       </c>
       <c r="J227">
-        <v>14.96</v>
-      </c>
-    </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A228">
-        <v>3021</v>
-      </c>
-      <c r="B228" t="s">
-        <v>89</v>
-      </c>
-      <c r="C228" t="s">
-        <v>126</v>
-      </c>
-      <c r="D228" t="s">
-        <v>127</v>
-      </c>
-      <c r="E228" t="s">
-        <v>15</v>
-      </c>
-      <c r="F228" t="s">
-        <v>74</v>
-      </c>
-      <c r="G228" t="s">
-        <v>79</v>
-      </c>
-      <c r="H228" t="s">
-        <v>74</v>
-      </c>
-      <c r="I228" s="1">
-        <v>0.55071759259259256</v>
-      </c>
-      <c r="J228">
         <v>14.11</v>
       </c>
     </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <f>SUMPRODUCT(1/COUNTIF(A$2:A227,A$2:A227))</f>
+        <v>47.000000000000043</v>
+      </c>
+      <c r="B229" t="s">
+        <v>203</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H228" xr:uid="{31351596-E0FC-46CB-B821-2B7A484F1F05}"/>
+  <autoFilter ref="A1:H227" xr:uid="{31351596-E0FC-46CB-B821-2B7A484F1F05}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0B86164-C2BF-4FAC-9F43-A4961F744B32}">
-  <dimension ref="A1:J921"/>
+  <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:H1048576"/>
+      <pane ySplit="1" topLeftCell="A889" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A923" sqref="A923:B923"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40529,13 +40563,22 @@
         <v>3.22</v>
       </c>
     </row>
+    <row r="923" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A923">
+        <f>SUMPRODUCT(1/COUNTIF(A$2:A921,A$2:A921))</f>
+        <v>96.000000000000654</v>
+      </c>
+      <c r="B923" t="s">
+        <v>203</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H921" xr:uid="{C0B86164-C2BF-4FAC-9F43-A4961F744B32}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9818D594-A7F1-4507-89F6-CBD3FB1EB2FC}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -40555,7 +40598,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5EE7DB5-EE28-4207-86EC-9D6E7ABE5ADF}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -40573,7 +40616,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11EF98B6-ECF8-4C68-9B2B-13C8D8EA26A7}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -40591,7 +40634,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE91593A-1DC9-48E9-A77F-4EBA39A6E4EF}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -40609,13 +40652,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A1AA8D3-987D-44C9-853B-2C60A0292403}">
-  <dimension ref="A1:G182"/>
+  <dimension ref="A1:G184"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:D1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A185" sqref="A185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44800,6 +44843,15 @@
         <v>8.9600000000000009</v>
       </c>
     </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <f>SUMPRODUCT(1/COUNTIF(A$2:A182,A$2:A182))</f>
+        <v>30.999999999999996</v>
+      </c>
+      <c r="B184" t="s">
+        <v>203</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G182" xr:uid="{1A1AA8D3-987D-44C9-853B-2C60A0292403}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
